--- a/data_excel/574.xlsx
+++ b/data_excel/574.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise_final\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>1</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +158,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,17 +183,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -488,7 +516,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,13 +612,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,15 +631,6 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -654,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -662,15 +681,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/574.xlsx
+++ b/data_excel/574.xlsx
@@ -93,9 +93,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -121,6 +118,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +165,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,13 +211,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -516,7 +525,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,10 +643,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +662,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -675,26 +684,26 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
